--- a/result/15_pred.xlsx
+++ b/result/15_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,298 +447,194 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>409464.9324901144</v>
+        <v>409458.9665205239</v>
       </c>
       <c r="B2" t="n">
-        <v>3291821.470690051</v>
+        <v>3291824.537807076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>409449.9334339083</v>
+        <v>409434.9680305942</v>
       </c>
       <c r="B3" t="n">
-        <v>3291821.63895451</v>
+        <v>3291824.807030211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>409434.9343777023</v>
+        <v>409410.9695406646</v>
       </c>
       <c r="B4" t="n">
-        <v>3291821.80721897</v>
+        <v>3291825.076253347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>409419.9353214963</v>
+        <v>409459.2357436591</v>
       </c>
       <c r="B5" t="n">
-        <v>3291821.97548343</v>
+        <v>3291848.536297006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>409465.1007545739</v>
+        <v>409435.2372537295</v>
       </c>
       <c r="B6" t="n">
-        <v>3291836.469746257</v>
+        <v>3291848.805520141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>409450.1016983679</v>
+        <v>409411.2387637998</v>
       </c>
       <c r="B7" t="n">
-        <v>3291836.638010717</v>
+        <v>3291849.074743276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>409435.1026421618</v>
+        <v>409459.5049667944</v>
       </c>
       <c r="B8" t="n">
-        <v>3291836.806275176</v>
+        <v>3291872.534786935</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>409420.1035859558</v>
+        <v>409435.5064768647</v>
       </c>
       <c r="B9" t="n">
-        <v>3291836.974539636</v>
+        <v>3291872.80401007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>409465.2690190335</v>
+        <v>409411.5079869351</v>
       </c>
       <c r="B10" t="n">
-        <v>3291851.468802463</v>
+        <v>3291873.073233206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>409450.2699628274</v>
+        <v>409435.7757</v>
       </c>
       <c r="B11" t="n">
-        <v>3291851.637066923</v>
+        <v>3291896.8025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>409435.2709066214</v>
+        <v>409411.7772100703</v>
       </c>
       <c r="B12" t="n">
-        <v>3291851.805331382</v>
+        <v>3291897.071723136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>409420.2718504153</v>
+        <v>409436.0449231353</v>
       </c>
       <c r="B13" t="n">
-        <v>3291851.973595842</v>
+        <v>3291920.80098993</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>409465.437283493</v>
+        <v>409412.0464332056</v>
       </c>
       <c r="B14" t="n">
-        <v>3291866.467858669</v>
+        <v>3291921.070213065</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>409450.438227287</v>
+        <v>409436.3141462705</v>
       </c>
       <c r="B15" t="n">
-        <v>3291866.636123129</v>
+        <v>3291944.799479859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>409435.4391710809</v>
+        <v>409412.3156563409</v>
       </c>
       <c r="B16" t="n">
-        <v>3291866.804387588</v>
+        <v>3291945.068702995</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>409420.4401148749</v>
+        <v>409436.5833694058</v>
       </c>
       <c r="B17" t="n">
-        <v>3291866.972652048</v>
+        <v>3291968.797969789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>409450.6064917465</v>
+        <v>409412.5848794761</v>
       </c>
       <c r="B18" t="n">
-        <v>3291881.635179335</v>
+        <v>3291969.067192924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>409435.6074355405</v>
+        <v>409447.3711102619</v>
       </c>
       <c r="B19" t="n">
-        <v>3291881.803443794</v>
+        <v>3291860.670153538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>409420.6083793344</v>
+        <v>409447.6403333972</v>
       </c>
       <c r="B20" t="n">
-        <v>3291881.971708254</v>
+        <v>3291884.668643468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>409450.774756206</v>
+        <v>409423.3726203323</v>
       </c>
       <c r="B21" t="n">
-        <v>3291896.634235541</v>
+        <v>3291860.939376674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>409435.7757</v>
+        <v>409423.6418434675</v>
       </c>
       <c r="B22" t="n">
-        <v>3291896.8025</v>
+        <v>3291884.937866603</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>409420.776643794</v>
+        <v>409447.9095565325</v>
       </c>
       <c r="B23" t="n">
-        <v>3291896.97076446</v>
+        <v>3291908.667133397</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>409450.9430206656</v>
+        <v>409423.9110666028</v>
       </c>
       <c r="B24" t="n">
-        <v>3291911.633291746</v>
+        <v>3291908.936356532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>409435.9439644595</v>
+        <v>409424.1802897381</v>
       </c>
       <c r="B25" t="n">
-        <v>3291911.801556206</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>409420.9449082535</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3291911.969820666</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>409451.1112851251</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3291926.632347953</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>409436.1122289191</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3291926.800612412</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>409421.113172713</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3291926.968876872</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>409451.2795495847</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3291941.631404159</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>409436.2804933786</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3291941.799668618</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>409421.2814371726</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3291941.967933078</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>409451.4478140442</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3291956.630460365</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>409436.4487578382</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3291956.798724825</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>409421.4497016321</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3291956.966989284</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>409451.6160785037</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3291971.629516571</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>409436.6170222977</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3291971.79778103</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>409421.6179660917</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3291971.96604549</v>
+        <v>3291932.934846462</v>
       </c>
     </row>
   </sheetData>
